--- a/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/RGB_n.xlsx
+++ b/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/RGB_n.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.13588621794658096</v>
+      </c>
+      <c r="B1">
+        <v>0.72010019935556557</v>
+      </c>
+      <c r="C1">
+        <v>0.54776316706550576</v>
+      </c>
+      <c r="D1">
+        <v>0.9355726384421027</v>
+      </c>
+      <c r="E1">
+        <v>0.008109230617043283</v>
+      </c>
+      <c r="F1">
+        <v>0.76130358669789022</v>
+      </c>
+      <c r="G1">
+        <v>0.94412334163991329</v>
+      </c>
+      <c r="H1">
+        <v>0.99594543232755595</v>
+      </c>
+      <c r="I1">
+        <v>0.0026014709530627054</v>
+      </c>
+      <c r="J1">
+        <v>0.68220854337793835</v>
+      </c>
+      <c r="K1">
+        <v>0.98608532830732032</v>
+      </c>
+      <c r="L1">
+        <v>0.99869926452346913</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.16632313023932965</v>
+      </c>
+      <c r="B2">
+        <v>0.77522660677883859</v>
+      </c>
+      <c r="C2">
+        <v>0.46853832272425922</v>
+      </c>
+      <c r="D2">
+        <v>0.92106788171989795</v>
+      </c>
+      <c r="E2">
+        <v>0.033890409212653391</v>
+      </c>
+      <c r="F2">
+        <v>0.82440609079842342</v>
+      </c>
+      <c r="G2">
+        <v>0.76759148959282897</v>
+      </c>
+      <c r="H2">
+        <v>0.98305492966167296</v>
+      </c>
+      <c r="I2">
+        <v>0.00062590011856557487</v>
+      </c>
+      <c r="J2">
+        <v>0.15022365245932542</v>
+      </c>
+      <c r="K2">
+        <v>0.99845935426319266</v>
+      </c>
+      <c r="L2">
+        <v>0.99968704994071733</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.23627361655492585</v>
+      </c>
+      <c r="B3">
+        <v>0.65738640081845856</v>
+      </c>
+      <c r="C3">
+        <v>0.38042642512258767</v>
+      </c>
+      <c r="D3">
+        <v>0.88723670565065282</v>
+      </c>
+      <c r="E3">
+        <v>0.078830063591862398</v>
+      </c>
+      <c r="F3">
+        <v>0.81907908873799873</v>
+      </c>
+      <c r="G3">
+        <v>0.49615350186837753</v>
+      </c>
+      <c r="H3">
+        <v>0.9605849682040688</v>
+      </c>
+      <c r="I3">
+        <v>0.00015597997537789474</v>
+      </c>
+      <c r="J3">
+        <v>0.70916859204602378</v>
+      </c>
+      <c r="K3">
+        <v>0.99927855982564928</v>
+      </c>
+      <c r="L3">
+        <v>0.99992201001231129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.13831324865365982</v>
+      </c>
+      <c r="B4">
+        <v>0.8257449224751966</v>
+      </c>
+      <c r="C4">
+        <v>0.34018013938620556</v>
+      </c>
+      <c r="D4">
+        <v>0.93104476333805075</v>
+      </c>
+      <c r="E4">
+        <v>0.029277309502655675</v>
+      </c>
+      <c r="F4">
+        <v>0.86251899014087852</v>
+      </c>
+      <c r="G4">
+        <v>0.76367454320258954</v>
+      </c>
+      <c r="H4">
+        <v>0.98536134524867214</v>
+      </c>
+      <c r="I4">
+        <v>0.062483666791445992</v>
+      </c>
+      <c r="J4">
+        <v>0.79391345877380304</v>
+      </c>
+      <c r="K4">
+        <v>0.6414630783814339</v>
+      </c>
+      <c r="L4">
+        <v>0.96875816660427705</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>